--- a/PastaDocReq/2SIR-ListaPesquisa.xlsx
+++ b/PastaDocReq/2SIR-ListaPesquisa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonpflocal\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{493AFFA2-418E-44CF-8EEC-2822F5EB7756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF14A28-0297-47C7-84FC-BD95B3B79E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825" xr2:uid="{0891ED88-779E-4904-AB47-DA324D9A5ACC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{0891ED88-779E-4904-AB47-DA324D9A5ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Requisitos do sistema de gestão de estacionamento</t>
   </si>
@@ -109,16 +109,26 @@
   </si>
   <si>
     <t>.Cadastramento e tipificaçao de vaga</t>
+  </si>
+  <si>
+    <t>.Integração com sistema da pm sobre carros roubados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,8 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CD8592-6EB6-4B54-8F7E-C6467C02028C}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,12 +619,27 @@
         <v>27</v>
       </c>
     </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100A647E37EC11C8246B76D75C67DE7970E" ma:contentTypeVersion="10" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="17c6482bd86435de73722152b5b3d04c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a6194295-1792-4b63-878c-b29c2ff82726" xmlns:ns3="49c50ba2-eaf4-4058-b769-73a32109933c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c1f1ade926c4aee093040732ea80b3eb" ns2:_="" ns3:_="">
     <xsd:import namespace="a6194295-1792-4b63-878c-b29c2ff82726"/>
@@ -816,15 +842,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -832,13 +849,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{487F935D-3D72-4A02-AD9E-5F77F9D44DFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A2AA33-B870-497C-A6E7-B31A9EADA4D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35A2AA33-B870-497C-A6E7-B31A9EADA4D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{487F935D-3D72-4A02-AD9E-5F77F9D44DFF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a6194295-1792-4b63-878c-b29c2ff82726"/>
+    <ds:schemaRef ds:uri="49c50ba2-eaf4-4058-b769-73a32109933c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CC2AEF2-026D-4D4C-9292-73B356E922D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CC2AEF2-026D-4D4C-9292-73B356E922D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>